--- a/results/I3_N5_M2_T15_C100_DepCentral_s1_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.44514067704</v>
+        <v>839.9596863901648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1449999809265137</v>
+        <v>0.1679999828338623</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.9115869243485e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74276653482634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.478220821311756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2065.20000000039</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.55</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,72 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -744,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -846,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -918,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.695361957914272</v>
+        <v>11.2396428483494</v>
       </c>
     </row>
     <row r="4">
@@ -934,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.08570568301258</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.44590858474082</v>
+        <v>7.489096221522904</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.27973517692068</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -980,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,230 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6099999999933</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1344,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.594999999992</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1355,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2399999999925</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1366,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4399999999932</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1377,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6549999999934</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -1388,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.44000000000278</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1399,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53500000000286</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1410,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.37000000000265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1421,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81500000000257</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1432,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.8350000000038</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1443,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>129.5099999999821</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1454,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>127.0749999999858</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1465,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>116.2800000000279</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1476,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>128.7850000000264</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1487,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>128.5800000000277</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1498,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>182.1099999999734</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1509,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>179.2049999999736</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1520,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>182.659999999973</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1531,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>181.4849999999779</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -1542,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>180.2899999999735</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1553,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>283.8349999999991</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1564,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>275.324999999997</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1575,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>280.9250000000043</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1586,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>278.4300000000052</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1597,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>283.8549999999994</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1608,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>283.8350000000253</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33">
@@ -1619,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>275.325000000016</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34">
@@ -1630,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>280.9250000000279</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35">
@@ -1641,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>278.4300000000237</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36">
@@ -1652,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>283.8550000000234</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37">
@@ -1663,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>129.5099999999707</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1674,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>127.0749999999744</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -1685,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>116.2800000000499</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -1696,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>128.7850000000484</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1707,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>128.580000000055</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1754,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>183.8350000000235</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -1765,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>175.3250000000141</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1776,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>180.9250000000261</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1787,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>178.4300000000219</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1798,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>183.8550000000216</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -1809,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>29.50999999996839</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1820,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.07499999997208</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1831,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2800000000484</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1842,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>28.78500000004601</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1853,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>28.58000000005268</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1911,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1922,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1933,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1944,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1955,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1966,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1977,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1988,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1999,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2065,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2076,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2087,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2109,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2120,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2131,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2142,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2153,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2164,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2302,127 +2012,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
